--- a/resources/Professeurs.xlsx
+++ b/resources/Professeurs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GINF2_2021_2022\XML\Projet_Gestion_Scolarite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4974886A-9D4F-4B65-8410-2D01E08E4E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85505E17-3C2F-46F9-9B1E-1F637546448B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{15DE7C9D-9585-48D7-B18A-212970694E0D}"/>
+    <workbookView xWindow="5480" yWindow="3520" windowWidth="14400" windowHeight="7360" xr2:uid="{15DE7C9D-9585-48D7-B18A-212970694E0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>CIN</t>
   </si>
@@ -58,57 +58,30 @@
     <t>Matiere2</t>
   </si>
   <si>
-    <t>El Haddad</t>
-  </si>
-  <si>
     <t>Mohamed</t>
   </si>
   <si>
     <t>SIC</t>
   </si>
   <si>
-    <t>06 82 02 22 11</t>
-  </si>
-  <si>
     <t>GINF32</t>
   </si>
   <si>
-    <t>GINF52</t>
-  </si>
-  <si>
     <t>Hassan</t>
   </si>
   <si>
     <t>Badir</t>
   </si>
   <si>
-    <t>02 51 40 28 06</t>
-  </si>
-  <si>
-    <t>El Alami</t>
-  </si>
-  <si>
-    <t>Hassoun</t>
-  </si>
-  <si>
     <t>MI</t>
   </si>
   <si>
-    <t>08 55 45 51 46</t>
-  </si>
-  <si>
     <t>Amechnoue</t>
   </si>
   <si>
     <t>Khalid</t>
   </si>
   <si>
-    <t>03 42 67 10 87</t>
-  </si>
-  <si>
-    <t>GINF33</t>
-  </si>
-  <si>
     <t>GINF42</t>
   </si>
   <si>
@@ -118,18 +91,6 @@
     <t>Rachida</t>
   </si>
   <si>
-    <t>08 89 02 36 34</t>
-  </si>
-  <si>
-    <t>El Azzouzi</t>
-  </si>
-  <si>
-    <t>Rahali</t>
-  </si>
-  <si>
-    <t>08 44 72 02 14</t>
-  </si>
-  <si>
     <t>GINF34</t>
   </si>
   <si>
@@ -142,14 +103,86 @@
     <t>GINF22</t>
   </si>
   <si>
-    <t>Melhaddad</t>
+    <t>KA14536</t>
+  </si>
+  <si>
+    <t>KA14538</t>
+  </si>
+  <si>
+    <t>KA14539</t>
+  </si>
+  <si>
+    <t>KA14541</t>
+  </si>
+  <si>
+    <t>KA14542</t>
+  </si>
+  <si>
+    <t>KO14537</t>
+  </si>
+  <si>
+    <t>KU14540</t>
+  </si>
+  <si>
+    <t>badir.hassan@uae.ac.ma</t>
+  </si>
+  <si>
+    <t>BELMOKADDEM</t>
+  </si>
+  <si>
+    <t>Houda</t>
+  </si>
+  <si>
+    <t>h.belmokadem@uae.ac.ma</t>
+  </si>
+  <si>
+    <t>EL HADDAD</t>
+  </si>
+  <si>
+    <t>Mohammed</t>
+  </si>
+  <si>
+    <t>rfissoune@uae.ac.ma</t>
+  </si>
+  <si>
+    <t>Saida</t>
+  </si>
+  <si>
+    <t>Rahli el azzouzi</t>
+  </si>
+  <si>
+    <t>s.rahaliazzouzi@uae.ac.ma</t>
+  </si>
+  <si>
+    <t>kamechnoue@uae.ac.ma</t>
+  </si>
+  <si>
+    <t>EL ALAMI HASSOUN</t>
+  </si>
+  <si>
+    <t>melhaddad@uae.ac.ma</t>
+  </si>
+  <si>
+    <t>h.elalami@uae.ac.ma</t>
+  </si>
+  <si>
+    <t>GINF41</t>
+  </si>
+  <si>
+    <t>GINF35</t>
+  </si>
+  <si>
+    <t>GINF14</t>
+  </si>
+  <si>
+    <t>GINF25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +194,33 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,16 +240,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{58155A99-AF4C-49C1-ACB6-3C766FAF5CC9}"/>
   </cellStyles>
@@ -503,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCB0642-A311-4CE8-97B4-E906A7DA35FC}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -542,159 +607,238 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>69876543</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>69567839</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>65648281</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>66352419</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>67353291</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1">
+        <v>65319365</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="str">
-        <f t="shared" ref="F3:F7" si="0">CONCATENATE(C3,B3,"@uae.ac.ma")</f>
-        <v>BadirHassan@uae.ac.ma</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HassounEl Alami@uae.ac.ma</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="E8" s="1">
+        <v>69937522</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>KhalidAmechnoue@uae.ac.ma</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>RachidaFissoune@uae.ac.ma</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>RahaliEl Azzouzi@uae.ac.ma</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{A6B9DFFA-F2F0-4DFB-A852-1647A652C708}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{12C9AAB9-6277-4F7C-9816-0FBC4861C1DC}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{A2368640-B473-488C-898A-1AA8351D1F7F}"/>
+    <hyperlink ref="F8" r:id="rId4" xr:uid="{0F4C6695-D74E-4BE6-A1B5-C14C33E50325}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/resources/Professeurs.xlsx
+++ b/resources/Professeurs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85505E17-3C2F-46F9-9B1E-1F637546448B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0242BE-C9E9-4BE2-A60C-7A69DA56A9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="3520" windowWidth="14400" windowHeight="7360" xr2:uid="{15DE7C9D-9585-48D7-B18A-212970694E0D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{15DE7C9D-9585-48D7-B18A-212970694E0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -571,7 +571,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -611,10 +611,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -637,10 +637,10 @@
         <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -686,10 +686,10 @@
         <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -709,10 +709,10 @@
         <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -732,10 +732,10 @@
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -758,10 +758,10 @@
         <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -784,7 +784,6 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
@@ -792,7 +791,6 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="1"/>
@@ -800,7 +798,6 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="1"/>
@@ -808,7 +805,6 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="1"/>
@@ -816,7 +812,6 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
@@ -824,7 +819,6 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="1"/>
